--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gip-Dpp4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gip-Dpp4.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gip</t>
+  </si>
+  <si>
+    <t>Dpp4</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Gip</t>
-  </si>
-  <si>
-    <t>Dpp4</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -531,25 +531,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.08478666666666666</v>
+        <v>0.4870623333333333</v>
       </c>
       <c r="H2">
-        <v>0.25436</v>
+        <v>1.461187</v>
       </c>
       <c r="I2">
-        <v>0.1482675787955678</v>
+        <v>0.8073404988294784</v>
       </c>
       <c r="J2">
-        <v>0.1482675787955678</v>
+        <v>0.8073404988294784</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.007114</v>
+        <v>0.03269333333333333</v>
       </c>
       <c r="N2">
-        <v>0.021342</v>
+        <v>0.09808</v>
       </c>
       <c r="O2">
-        <v>0.0005351658664379762</v>
+        <v>0.001656893562427925</v>
       </c>
       <c r="P2">
-        <v>0.0005353690099007143</v>
+        <v>0.001659236418317591</v>
       </c>
       <c r="Q2">
-        <v>0.0006031723466666666</v>
+        <v>0.01592369121777778</v>
       </c>
       <c r="R2">
-        <v>0.00542855112</v>
+        <v>0.14331322096</v>
       </c>
       <c r="S2">
-        <v>7.934774727079097E-05</v>
+        <v>0.001337677275197912</v>
       </c>
       <c r="T2">
-        <v>7.937786686015928E-05</v>
+        <v>0.001339568757640561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,25 +593,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.08478666666666666</v>
+        <v>0.4870623333333333</v>
       </c>
       <c r="H3">
-        <v>0.25436</v>
+        <v>1.461187</v>
       </c>
       <c r="I3">
-        <v>0.1482675787955678</v>
+        <v>0.8073404988294784</v>
       </c>
       <c r="J3">
-        <v>0.1482675787955678</v>
+        <v>0.8073404988294784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.8956</v>
       </c>
       <c r="O3">
-        <v>0.1478363734500859</v>
+        <v>0.09959606124235393</v>
       </c>
       <c r="P3">
-        <v>0.1478924906180607</v>
+        <v>0.09973689057741834</v>
       </c>
       <c r="Q3">
-        <v>0.1666227573333333</v>
+        <v>0.9571748974666666</v>
       </c>
       <c r="R3">
-        <v>1.499604816</v>
+        <v>8.6145740772</v>
       </c>
       <c r="S3">
-        <v>0.0219193411493616</v>
+        <v>0.08040793376485331</v>
       </c>
       <c r="T3">
-        <v>0.02192766150598609</v>
+        <v>0.08052163099047403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +655,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.08478666666666666</v>
+        <v>0.4870623333333333</v>
       </c>
       <c r="H4">
-        <v>0.25436</v>
+        <v>1.461187</v>
       </c>
       <c r="I4">
-        <v>0.1482675787955678</v>
+        <v>0.8073404988294784</v>
       </c>
       <c r="J4">
-        <v>0.1482675787955678</v>
+        <v>0.8073404988294784</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.045392666666666</v>
+        <v>13.379326</v>
       </c>
       <c r="N4">
-        <v>27.136178</v>
+        <v>40.137978</v>
       </c>
       <c r="O4">
-        <v>0.680459010926115</v>
+        <v>0.6780623710957755</v>
       </c>
       <c r="P4">
-        <v>0.6807173061732522</v>
+        <v>0.679021154722984</v>
       </c>
       <c r="Q4">
-        <v>0.7669286928977778</v>
+        <v>6.516565739987333</v>
       </c>
       <c r="R4">
-        <v>6.90235823608</v>
+        <v>58.649091659886</v>
       </c>
       <c r="S4">
-        <v>0.1008900100196419</v>
+        <v>0.5474272129179624</v>
       </c>
       <c r="T4">
-        <v>0.1009283068305493</v>
+        <v>0.5482012777698223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.08478666666666666</v>
+        <v>0.4870623333333333</v>
       </c>
       <c r="H5">
-        <v>0.25436</v>
+        <v>1.461187</v>
       </c>
       <c r="I5">
-        <v>0.1482675787955678</v>
+        <v>0.8073404988294784</v>
       </c>
       <c r="J5">
-        <v>0.1482675787955678</v>
+        <v>0.8073404988294784</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.015132</v>
+        <v>0.08358400000000001</v>
       </c>
       <c r="N5">
-        <v>0.030264</v>
+        <v>0.167168</v>
       </c>
       <c r="O5">
-        <v>0.001138337066480103</v>
+        <v>0.004236025433991914</v>
       </c>
       <c r="P5">
-        <v>0.0007591794450208611</v>
+        <v>0.00282801013027442</v>
       </c>
       <c r="Q5">
-        <v>0.00128299184</v>
+        <v>0.04071061806933333</v>
       </c>
       <c r="R5">
-        <v>0.007697951039999999</v>
+        <v>0.244263708416</v>
       </c>
       <c r="S5">
-        <v>0.0001687784807002543</v>
+        <v>0.00341991488693339</v>
       </c>
       <c r="T5">
-        <v>0.000112561698184606</v>
+        <v>0.002283167109270569</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,25 +779,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.08478666666666666</v>
+        <v>0.4870623333333333</v>
       </c>
       <c r="H6">
-        <v>0.25436</v>
+        <v>1.461187</v>
       </c>
       <c r="I6">
-        <v>0.1482675787955678</v>
+        <v>0.8073404988294784</v>
       </c>
       <c r="J6">
-        <v>0.1482675787955678</v>
+        <v>0.8073404988294784</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.260236333333333</v>
+        <v>4.270900666666667</v>
       </c>
       <c r="N6">
-        <v>6.780709</v>
+        <v>12.812702</v>
       </c>
       <c r="O6">
-        <v>0.170031112690881</v>
+        <v>0.2164486486654506</v>
       </c>
       <c r="P6">
-        <v>0.1700956547537655</v>
+        <v>0.2167547081510057</v>
       </c>
       <c r="Q6">
-        <v>0.1916379045822222</v>
+        <v>2.080194844141555</v>
       </c>
       <c r="R6">
-        <v>1.72474114124</v>
+        <v>18.721753597274</v>
       </c>
       <c r="S6">
-        <v>0.02521010139859328</v>
+        <v>0.1747477599845314</v>
       </c>
       <c r="T6">
-        <v>0.02521967089398762</v>
+        <v>0.174994854202271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +841,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4870623333333333</v>
+        <v>0.11623</v>
       </c>
       <c r="H7">
-        <v>1.461187</v>
+        <v>0.34869</v>
       </c>
       <c r="I7">
-        <v>0.8517324212044323</v>
+        <v>0.1926595011705215</v>
       </c>
       <c r="J7">
-        <v>0.8517324212044323</v>
+        <v>0.1926595011705215</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.007114</v>
+        <v>0.03269333333333333</v>
       </c>
       <c r="N7">
-        <v>0.021342</v>
+        <v>0.09808</v>
       </c>
       <c r="O7">
-        <v>0.0005351658664379762</v>
+        <v>0.001656893562427925</v>
       </c>
       <c r="P7">
-        <v>0.0005353690099007143</v>
+        <v>0.001659236418317591</v>
       </c>
       <c r="Q7">
-        <v>0.003464961439333333</v>
+        <v>0.003799946133333333</v>
       </c>
       <c r="R7">
-        <v>0.031184652954</v>
+        <v>0.0341995152</v>
       </c>
       <c r="S7">
-        <v>0.0004558181191671853</v>
+        <v>0.0003192162872300123</v>
       </c>
       <c r="T7">
-        <v>0.0004559911430405551</v>
+        <v>0.0003196676606770299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,25 +903,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.4870623333333333</v>
+        <v>0.11623</v>
       </c>
       <c r="H8">
-        <v>1.461187</v>
+        <v>0.34869</v>
       </c>
       <c r="I8">
-        <v>0.8517324212044323</v>
+        <v>0.1926595011705215</v>
       </c>
       <c r="J8">
-        <v>0.8517324212044323</v>
+        <v>0.1926595011705215</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>5.8956</v>
       </c>
       <c r="O8">
-        <v>0.1478363734500859</v>
+        <v>0.09959606124235393</v>
       </c>
       <c r="P8">
-        <v>0.1478924906180607</v>
+        <v>0.09973689057741834</v>
       </c>
       <c r="Q8">
-        <v>0.9571748974666666</v>
+        <v>0.228415196</v>
       </c>
       <c r="R8">
-        <v>8.6145740772</v>
+        <v>2.055736764</v>
       </c>
       <c r="S8">
-        <v>0.1259170323007243</v>
+        <v>0.01918812747750062</v>
       </c>
       <c r="T8">
-        <v>0.1259648291120746</v>
+        <v>0.01921525958694431</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,25 +965,25 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.4870623333333333</v>
+        <v>0.11623</v>
       </c>
       <c r="H9">
-        <v>1.461187</v>
+        <v>0.34869</v>
       </c>
       <c r="I9">
-        <v>0.8517324212044323</v>
+        <v>0.1926595011705215</v>
       </c>
       <c r="J9">
-        <v>0.8517324212044323</v>
+        <v>0.1926595011705215</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.045392666666666</v>
+        <v>13.379326</v>
       </c>
       <c r="N9">
-        <v>27.136178</v>
+        <v>40.137978</v>
       </c>
       <c r="O9">
-        <v>0.680459010926115</v>
+        <v>0.6780623710957755</v>
       </c>
       <c r="P9">
-        <v>0.6807173061732522</v>
+        <v>0.679021154722984</v>
       </c>
       <c r="Q9">
-        <v>4.405670058142888</v>
+        <v>1.55507906098</v>
       </c>
       <c r="R9">
-        <v>39.651030523286</v>
+        <v>13.99571154882</v>
       </c>
       <c r="S9">
-        <v>0.5795690009064732</v>
+        <v>0.1306351581778132</v>
       </c>
       <c r="T9">
-        <v>0.5797889993427029</v>
+        <v>0.1308198769531616</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.4870623333333333</v>
+        <v>0.11623</v>
       </c>
       <c r="H10">
-        <v>1.461187</v>
+        <v>0.34869</v>
       </c>
       <c r="I10">
-        <v>0.8517324212044323</v>
+        <v>0.1926595011705215</v>
       </c>
       <c r="J10">
-        <v>0.8517324212044323</v>
+        <v>0.1926595011705215</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.015132</v>
+        <v>0.08358400000000001</v>
       </c>
       <c r="N10">
-        <v>0.030264</v>
+        <v>0.167168</v>
       </c>
       <c r="O10">
-        <v>0.001138337066480103</v>
+        <v>0.004236025433991914</v>
       </c>
       <c r="P10">
-        <v>0.0007591794450208611</v>
+        <v>0.00282801013027442</v>
       </c>
       <c r="Q10">
-        <v>0.007370227228</v>
+        <v>0.009714968320000001</v>
       </c>
       <c r="R10">
-        <v>0.044221363368</v>
+        <v>0.05828980992</v>
       </c>
       <c r="S10">
-        <v>0.0009695585857798492</v>
+        <v>0.0008161105470585242</v>
       </c>
       <c r="T10">
-        <v>0.0006466177468362552</v>
+        <v>0.0005448430210038514</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,25 +1089,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.4870623333333333</v>
+        <v>0.11623</v>
       </c>
       <c r="H11">
-        <v>1.461187</v>
+        <v>0.34869</v>
       </c>
       <c r="I11">
-        <v>0.8517324212044323</v>
+        <v>0.1926595011705215</v>
       </c>
       <c r="J11">
-        <v>0.8517324212044323</v>
+        <v>0.1926595011705215</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.260236333333333</v>
+        <v>4.270900666666667</v>
       </c>
       <c r="N11">
-        <v>6.780709</v>
+        <v>12.812702</v>
       </c>
       <c r="O11">
-        <v>0.170031112690881</v>
+        <v>0.2164486486654506</v>
       </c>
       <c r="P11">
-        <v>0.1700956547537655</v>
+        <v>0.2167547081510057</v>
       </c>
       <c r="Q11">
-        <v>1.100875982398111</v>
+        <v>0.4964067844866667</v>
       </c>
       <c r="R11">
-        <v>9.907883841583001</v>
+        <v>4.46766106038</v>
       </c>
       <c r="S11">
-        <v>0.1448210112922878</v>
+        <v>0.04170088868091919</v>
       </c>
       <c r="T11">
-        <v>0.1448759838597779</v>
+        <v>0.04175985394873474</v>
       </c>
     </row>
   </sheetData>
